--- a/_testassets/MC_testassets.xlsx
+++ b/_testassets/MC_testassets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kundi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kundi\Sphere\duality\_testassets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DCE3F69-8E59-44C1-AE0B-22F3E27E0195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F53A918-56E2-4F32-837E-DC6AFB29D632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4A9E6FBB-9B9B-4564-8C91-AF81DEC233E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A9E6FBB-9B9B-4564-8C91-AF81DEC233E0}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -34,22 +34,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>set1</t>
   </si>
   <si>
     <t>set2</t>
+  </si>
+  <si>
+    <t>set3</t>
+  </si>
+  <si>
+    <t>text1</t>
+  </si>
+  <si>
+    <t>text2</t>
+  </si>
+  <si>
+    <t>text3</t>
+  </si>
+  <si>
+    <t>text4</t>
+  </si>
+  <si>
+    <t>text5</t>
+  </si>
+  <si>
+    <t>text6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -76,8 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalno" xfId="0" builtinId="0"/>
@@ -392,71 +423,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA5E28F-C2D0-48C5-A71C-6E38D30B01A8}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50</v>
       </c>
       <c r="B2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>48</v>
       </c>
       <c r="B3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>49</v>
       </c>
       <c r="B4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>49</v>
       </c>
       <c r="B5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>48</v>
       </c>
       <c r="B6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>47</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>188</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>